--- a/resources/TestData/TestData.xlsx
+++ b/resources/TestData/TestData.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\PageObjectWithPageFactoryFramework\src\main\java\com\test\automation\uiAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\LiveDemo\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="SignUp" sheetId="2" r:id="rId2"/>
+    <sheet name="Registration" sheetId="3" r:id="rId1"/>
+    <sheet name="ShippingAddress" sheetId="5" r:id="rId2"/>
+    <sheet name="LoginTestData" sheetId="1" r:id="rId3"/>
+    <sheet name="SignUp" sheetId="2" r:id="rId4"/>
+    <sheet name="CreateUser" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>userName</t>
   </si>
@@ -130,6 +133,54 @@
   </si>
   <si>
     <t>10016</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Jha</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>901 Warrenville Road,</t>
+  </si>
+  <si>
+    <t>Lisle</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>Kumar</t>
   </si>
 </sst>
 </file>
@@ -474,6 +525,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>60532</v>
+      </c>
+      <c r="G2">
+        <v>88877888899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -587,11 +749,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -702,4 +864,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>